--- a/po_analysis_by_asin/B08WPV5HS7_po_data.xlsx
+++ b/po_analysis_by_asin/B08WPV5HS7_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -474,30 +474,6 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>45102.99999999999</v>
-      </c>
-      <c r="B5" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>45123.99999999999</v>
-      </c>
-      <c r="B6" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>45130.99999999999</v>
-      </c>
-      <c r="B7" t="n">
-        <v>12</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -509,7 +485,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -545,22 +521,6 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>45107.99999999999</v>
-      </c>
-      <c r="B4" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>45138.99999999999</v>
-      </c>
-      <c r="B5" t="n">
-        <v>24</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/po_analysis_by_asin/B08WPV5HS7_po_data.xlsx
+++ b/po_analysis_by_asin/B08WPV5HS7_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -501,7 +502,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -519,6 +520,201 @@
       </c>
       <c r="B3" t="n">
         <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>44948.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>5</v>
+      </c>
+      <c r="C2" t="n">
+        <v>3.220592490815414</v>
+      </c>
+      <c r="D2" t="n">
+        <v>6.728880059427539</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>44955.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>8</v>
+      </c>
+      <c r="C3" t="n">
+        <v>6.323193263148783</v>
+      </c>
+      <c r="D3" t="n">
+        <v>9.740928524968536</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>44962.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>11</v>
+      </c>
+      <c r="C4" t="n">
+        <v>9.192093891122026</v>
+      </c>
+      <c r="D4" t="n">
+        <v>12.80641442163465</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>44969.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>14</v>
+      </c>
+      <c r="C5" t="n">
+        <v>12.19524784476156</v>
+      </c>
+      <c r="D5" t="n">
+        <v>15.92724707188889</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>44976.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>17</v>
+      </c>
+      <c r="C6" t="n">
+        <v>15.18020060654142</v>
+      </c>
+      <c r="D6" t="n">
+        <v>18.76430587235053</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>44983.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>20</v>
+      </c>
+      <c r="C7" t="n">
+        <v>18.24451118627795</v>
+      </c>
+      <c r="D7" t="n">
+        <v>21.78397619660839</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>44990.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>23</v>
+      </c>
+      <c r="C8" t="n">
+        <v>21.17852693386302</v>
+      </c>
+      <c r="D8" t="n">
+        <v>24.91967454449661</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>44997.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>26</v>
+      </c>
+      <c r="C9" t="n">
+        <v>24.3829193615796</v>
+      </c>
+      <c r="D9" t="n">
+        <v>27.77553422730972</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45004.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>29</v>
+      </c>
+      <c r="C10" t="n">
+        <v>27.25983500299118</v>
+      </c>
+      <c r="D10" t="n">
+        <v>30.7539376006356</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45011.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>32</v>
+      </c>
+      <c r="C11" t="n">
+        <v>30.2189888564153</v>
+      </c>
+      <c r="D11" t="n">
+        <v>33.74057111868668</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45018.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>35</v>
+      </c>
+      <c r="C12" t="n">
+        <v>33.32277240844854</v>
+      </c>
+      <c r="D12" t="n">
+        <v>36.77458879917329</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B08WPV5HS7_po_data.xlsx
+++ b/po_analysis_by_asin/B08WPV5HS7_po_data.xlsx
@@ -533,7 +533,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -552,16 +552,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -570,12 +560,6 @@
       <c r="B2" t="n">
         <v>5</v>
       </c>
-      <c r="C2" t="n">
-        <v>3.220592490815414</v>
-      </c>
-      <c r="D2" t="n">
-        <v>6.728880059427539</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -584,12 +568,6 @@
       <c r="B3" t="n">
         <v>8</v>
       </c>
-      <c r="C3" t="n">
-        <v>6.323193263148783</v>
-      </c>
-      <c r="D3" t="n">
-        <v>9.740928524968536</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -598,12 +576,6 @@
       <c r="B4" t="n">
         <v>11</v>
       </c>
-      <c r="C4" t="n">
-        <v>9.192093891122026</v>
-      </c>
-      <c r="D4" t="n">
-        <v>12.80641442163465</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -612,12 +584,6 @@
       <c r="B5" t="n">
         <v>14</v>
       </c>
-      <c r="C5" t="n">
-        <v>12.19524784476156</v>
-      </c>
-      <c r="D5" t="n">
-        <v>15.92724707188889</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -626,12 +592,6 @@
       <c r="B6" t="n">
         <v>17</v>
       </c>
-      <c r="C6" t="n">
-        <v>15.18020060654142</v>
-      </c>
-      <c r="D6" t="n">
-        <v>18.76430587235053</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -640,12 +600,6 @@
       <c r="B7" t="n">
         <v>20</v>
       </c>
-      <c r="C7" t="n">
-        <v>18.24451118627795</v>
-      </c>
-      <c r="D7" t="n">
-        <v>21.78397619660839</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -654,12 +608,6 @@
       <c r="B8" t="n">
         <v>23</v>
       </c>
-      <c r="C8" t="n">
-        <v>21.17852693386302</v>
-      </c>
-      <c r="D8" t="n">
-        <v>24.91967454449661</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -668,12 +616,6 @@
       <c r="B9" t="n">
         <v>26</v>
       </c>
-      <c r="C9" t="n">
-        <v>24.3829193615796</v>
-      </c>
-      <c r="D9" t="n">
-        <v>27.77553422730972</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -682,12 +624,6 @@
       <c r="B10" t="n">
         <v>29</v>
       </c>
-      <c r="C10" t="n">
-        <v>27.25983500299118</v>
-      </c>
-      <c r="D10" t="n">
-        <v>30.7539376006356</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -696,12 +632,6 @@
       <c r="B11" t="n">
         <v>32</v>
       </c>
-      <c r="C11" t="n">
-        <v>30.2189888564153</v>
-      </c>
-      <c r="D11" t="n">
-        <v>33.74057111868668</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -709,12 +639,6 @@
       </c>
       <c r="B12" t="n">
         <v>35</v>
-      </c>
-      <c r="C12" t="n">
-        <v>33.32277240844854</v>
-      </c>
-      <c r="D12" t="n">
-        <v>36.77458879917329</v>
       </c>
     </row>
   </sheetData>
